--- a/Sirison_Wu_1.xlsx
+++ b/Sirison_Wu_1.xlsx
@@ -1,200 +1,208 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nannaphatsirison/Desktop/FOLDERS/DUKE/Year 2/Semester 2/Time Series/Sirison-Wu_ENV790_TSA_Competition_S2023/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7790D-9414-B542-A7AB-FB743F1A687F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5075.44892770817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4921.12116632407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5103.00290915515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4938.07473410802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5138.19726992767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6046.42012315895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5799.06560982811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4921.31484218758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4708.01943912787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5505.76505227973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5431.17515518762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5247.95152264447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4699.73073171955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4703.88962410819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5416.81798957982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5406.3751159708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4506.74475120379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4495.01138965659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4340.48739644268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4495.0918230747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4867.36268950769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5221.69139610118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4676.1557160677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4151.11337839836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4194.36420195596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4020.74429191139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4339.17812159307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4563.0251054362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4302.5594946825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4474.89820543591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4564.08720139195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4654.95675820354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4302.90085108569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3863.41814691667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3993.02335842154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5278.72932596822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5066.76368239051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4736.75165718391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4349.7463786674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4117.62969371224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4343.04966240944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4327.95874314569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4349.53540488383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4673.74148138032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4934.65127971317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4556.61216143863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4148.11203156038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4064.77430781755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4260.97868864433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4448.92358445727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3911.17347885038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3787.45125760339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3729.78524709462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3438.60625397737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2929.95657312734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3897.95342969205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4102.61575141852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3330.2466939281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3274.7122036043</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>5075.44892770817</t>
+  </si>
+  <si>
+    <t>4921.12116632407</t>
+  </si>
+  <si>
+    <t>5103.00290915515</t>
+  </si>
+  <si>
+    <t>4938.07473410802</t>
+  </si>
+  <si>
+    <t>5138.19726992767</t>
+  </si>
+  <si>
+    <t>6046.42012315895</t>
+  </si>
+  <si>
+    <t>5799.06560982811</t>
+  </si>
+  <si>
+    <t>4921.31484218758</t>
+  </si>
+  <si>
+    <t>4708.01943912787</t>
+  </si>
+  <si>
+    <t>5505.76505227973</t>
+  </si>
+  <si>
+    <t>5431.17515518762</t>
+  </si>
+  <si>
+    <t>5247.95152264447</t>
+  </si>
+  <si>
+    <t>4699.73073171955</t>
+  </si>
+  <si>
+    <t>4703.88962410819</t>
+  </si>
+  <si>
+    <t>5416.81798957982</t>
+  </si>
+  <si>
+    <t>5406.3751159708</t>
+  </si>
+  <si>
+    <t>4506.74475120379</t>
+  </si>
+  <si>
+    <t>4495.01138965659</t>
+  </si>
+  <si>
+    <t>4340.48739644268</t>
+  </si>
+  <si>
+    <t>4495.0918230747</t>
+  </si>
+  <si>
+    <t>4867.36268950769</t>
+  </si>
+  <si>
+    <t>5221.69139610118</t>
+  </si>
+  <si>
+    <t>4676.1557160677</t>
+  </si>
+  <si>
+    <t>4151.11337839836</t>
+  </si>
+  <si>
+    <t>4194.36420195596</t>
+  </si>
+  <si>
+    <t>4020.74429191139</t>
+  </si>
+  <si>
+    <t>4339.17812159307</t>
+  </si>
+  <si>
+    <t>4563.0251054362</t>
+  </si>
+  <si>
+    <t>4302.5594946825</t>
+  </si>
+  <si>
+    <t>4474.89820543591</t>
+  </si>
+  <si>
+    <t>4564.08720139195</t>
+  </si>
+  <si>
+    <t>4654.95675820354</t>
+  </si>
+  <si>
+    <t>4302.90085108569</t>
+  </si>
+  <si>
+    <t>3863.41814691667</t>
+  </si>
+  <si>
+    <t>3993.02335842154</t>
+  </si>
+  <si>
+    <t>5278.72932596822</t>
+  </si>
+  <si>
+    <t>5066.76368239051</t>
+  </si>
+  <si>
+    <t>4736.75165718391</t>
+  </si>
+  <si>
+    <t>4349.7463786674</t>
+  </si>
+  <si>
+    <t>4117.62969371224</t>
+  </si>
+  <si>
+    <t>4343.04966240944</t>
+  </si>
+  <si>
+    <t>4327.95874314569</t>
+  </si>
+  <si>
+    <t>4349.53540488383</t>
+  </si>
+  <si>
+    <t>4673.74148138032</t>
+  </si>
+  <si>
+    <t>4934.65127971317</t>
+  </si>
+  <si>
+    <t>4556.61216143863</t>
+  </si>
+  <si>
+    <t>4148.11203156038</t>
+  </si>
+  <si>
+    <t>4064.77430781755</t>
+  </si>
+  <si>
+    <t>4260.97868864433</t>
+  </si>
+  <si>
+    <t>4448.92358445727</t>
+  </si>
+  <si>
+    <t>3911.17347885038</t>
+  </si>
+  <si>
+    <t>3787.45125760339</t>
+  </si>
+  <si>
+    <t>3729.78524709462</t>
+  </si>
+  <si>
+    <t>3438.60625397737</t>
+  </si>
+  <si>
+    <t>2929.95657312734</t>
+  </si>
+  <si>
+    <t>3897.95342969205</t>
+  </si>
+  <si>
+    <t>4102.61575141852</t>
+  </si>
+  <si>
+    <t>3330.2466939281</t>
+  </si>
+  <si>
+    <t>3274.7122036043</t>
   </si>
 </sst>
 </file>
@@ -202,20 +210,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,12 +243,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -527,14 +539,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,472 +559,472 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>40544</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>40545</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>40546</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>40547</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>40548</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>40549</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>40550</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>40551</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>40552</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>40553</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>40554</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>40555</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>40556</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>40557</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>40558</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>40559</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>40560</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>40561</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>40562</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>40563</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>40564</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>40565</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>40566</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>40567</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>40568</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>40569</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>40570</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>40571</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>40572</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>40573</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>40574</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>40575</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>40576</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>40577</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>40578</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>40579</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>40580</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>40581</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>40582</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>40583</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>40584</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>40585</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>40586</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>40587</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>40588</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>40589</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>40590</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>40591</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>40592</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>40593</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>40594</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>40595</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>40596</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>40597</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>40598</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>40599</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>40600</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>40601</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>40602</v>
       </c>
       <c r="B60" t="s">
@@ -1016,6 +1033,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Sirison_Wu_1.xlsx
+++ b/Sirison_Wu_1.xlsx
@@ -20,181 +20,181 @@
     <t xml:space="preserve">load</t>
   </si>
   <si>
-    <t xml:space="preserve">5075.44892770817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4921.12116632407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5103.00290915515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4938.07473410802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5138.19726992767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6046.42012315895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5799.06560982811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4921.31484218758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4708.01943912787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5505.76505227973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5431.17515518762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5247.95152264447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4699.73073171955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4703.88962410819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5416.81798957982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5406.3751159708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4506.74475120379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4495.01138965659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4340.48739644268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4495.0918230747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4867.36268950769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5221.69139610118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4676.1557160677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4151.11337839836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4194.36420195596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4020.74429191139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4339.17812159307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4563.0251054362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4302.5594946825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4474.89820543591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4564.08720139195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4654.95675820354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4302.90085108569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3863.41814691667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3993.02335842154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5278.72932596822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5066.76368239051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4736.75165718391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4349.7463786674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4117.62969371224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4343.04966240944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4327.95874314569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4349.53540488383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4673.74148138032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4934.65127971317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4556.61216143863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4148.11203156038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4064.77430781755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4260.97868864433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4448.92358445727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3911.17347885038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3787.45125760339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3729.78524709462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3438.60625397737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2929.95657312734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3897.95342969205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4102.61575141852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3330.2466939281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3274.7122036043</t>
+    <t xml:space="preserve">5075.44892770825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4921.12116632414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5103.00290915521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4938.07473410809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5138.19726992774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6046.42012315898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5799.0656098281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4921.31484218767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4708.01943912794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5505.7650522798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5431.17515518768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5247.95152264454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4699.73073171958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4703.88962410817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5416.81798957991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5406.37511597088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4506.74475120386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4495.01138965666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4340.48739644275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4495.09182307473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4867.36268950767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5221.69139610127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4676.15571606778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4151.11337839842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4194.36420195602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4020.74429191146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4339.1781215931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4563.02510543618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4302.55949468259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4474.89820543599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4564.08720139201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4654.95675820361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4302.90085108577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3863.4181469167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3993.02335842152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5278.7293259683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5066.7636823906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4736.75165718398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4349.74637866747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4117.62969371231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4343.04966240947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4327.95874314567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4349.53540488392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4673.74148138041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4934.65127971323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4556.6121614387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4148.11203156045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4064.77430781757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4260.97868864431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4448.92358445736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3911.17347885047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3787.45125760346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3729.78524709469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3438.60625397744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2929.95657312736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3897.95342969202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4102.61575141861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3330.24669392818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3274.71220360437</t>
   </si>
 </sst>
 </file>

--- a/Sirison_Wu_1.xlsx
+++ b/Sirison_Wu_1.xlsx
@@ -20,181 +20,181 @@
     <t xml:space="preserve">load</t>
   </si>
   <si>
-    <t xml:space="preserve">5075.44892770825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4921.12116632414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5103.00290915521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4938.07473410809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5138.19726992774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6046.42012315898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5799.0656098281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4921.31484218767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4708.01943912794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5505.7650522798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5431.17515518768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5247.95152264454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4699.73073171958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4703.88962410817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5416.81798957991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5406.37511597088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4506.74475120386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4495.01138965666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4340.48739644275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4495.09182307473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4867.36268950767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5221.69139610127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4676.15571606778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4151.11337839842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4194.36420195602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4020.74429191146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4339.1781215931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4563.02510543618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4302.55949468259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4474.89820543599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4564.08720139201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4654.95675820361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4302.90085108577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3863.4181469167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3993.02335842152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5278.7293259683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5066.7636823906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4736.75165718398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4349.74637866747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4117.62969371231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4343.04966240947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4327.95874314567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4349.53540488392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4673.74148138041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4934.65127971323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4556.6121614387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4148.11203156045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4064.77430781757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4260.97868864431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4448.92358445736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3911.17347885047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3787.45125760346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3729.78524709469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3438.60625397744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2929.95657312736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3897.95342969202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4102.61575141861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3330.24669392818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3274.71220360437</t>
+    <t xml:space="preserve">5075.44892770817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4921.12116632407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5103.00290915515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4938.07473410802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5138.19726992767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6046.42012315895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5799.06560982811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4921.31484218758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4708.01943912787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5505.76505227973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5431.17515518762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5247.95152264447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4699.73073171955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4703.88962410819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5416.81798957982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5406.3751159708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4506.74475120379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4495.01138965659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4340.48739644268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4495.0918230747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4867.36268950769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5221.69139610118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4676.1557160677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4151.11337839836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4194.36420195596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4020.74429191139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4339.17812159307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4563.0251054362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4302.5594946825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4474.89820543591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4564.08720139195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4654.95675820354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4302.90085108569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3863.41814691667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3993.02335842154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5278.72932596822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5066.76368239051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4736.75165718391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4349.7463786674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4117.62969371224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4343.04966240944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4327.95874314569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4349.53540488383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4673.74148138032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4934.65127971317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4556.61216143863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4148.11203156038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4064.77430781755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4260.97868864433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4448.92358445727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3911.17347885038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3787.45125760339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3729.78524709462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3438.60625397737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2929.95657312734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3897.95342969205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4102.61575141852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3330.2466939281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3274.7122036043</t>
   </si>
 </sst>
 </file>
